--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,41 +1,189 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+  <si>
+    <t>Дата обновления каталога</t>
+  </si>
+  <si>
+    <t>11.02.2024</t>
+  </si>
+  <si>
+    <t>Буррата и страчателла</t>
+  </si>
+  <si>
+    <t>Плавленый сыр</t>
+  </si>
+  <si>
+    <t>Сырные десерты</t>
+  </si>
+  <si>
+    <t>Наличие</t>
+  </si>
+  <si>
+    <t>Планируемая дата изготовления</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>("да" или "нет")</t>
+  </si>
+  <si>
+    <t>(формат: 01.01.2001)</t>
+  </si>
+  <si>
+    <t>Сбор предзаказов к праздникам</t>
+  </si>
+  <si>
+    <t>Сроки проведения</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Активность
+(да/нет)</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>ОТ</t>
+  </si>
+  <si>
+    <t>ДО (включительно)</t>
+  </si>
+  <si>
+    <t>Сырные трюфели</t>
+  </si>
+  <si>
+    <t>("да", "да(б)", "да(с)" или "нет")</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -43,86 +191,653 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="83">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+      <color rgb="FFC09200"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -412,71 +1127,310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="10.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.140625" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="1" customWidth="1"/>
+    <col min="10" max="10" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>45537</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>09.02.2024</t>
-        </is>
-      </c>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="58"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="32"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="10"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64">
+        <v>36892</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="F8" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71">
+        <v>36892</v>
+      </c>
+      <c r="I8" s="72"/>
+      <c r="K8" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="M8" s="75">
+        <v>36892</v>
+      </c>
+      <c r="N8" s="76"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="F9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="K9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="26"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+    </row>
+    <row r="15" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection password="ED0F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="25">
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="K4:N5"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
